--- a/02_MasterWifoMannheim/03_Courses/Course52.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course52.xlsx
@@ -1,37 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B36115981C8B64E71F9EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342320E6-8D5B-4F78-96CD-987B71712F67}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>ACC 620 Accounting for Financial Instruments and Financial Institutions</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>The course addresses in-depth the accounting for financial instruments and by financial institutions under setters and bank regulators. classification, initial and subsequent measurement, impairment, derecognition, as well as their accounting in the context of hedging transactions. We also discuss relevant notes disclosures in example banks’ financial statements and links to capital regulation.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>The course aims at developing the skills to understand, apply, analyze and critically evaluate accounting standards in the complex field of accounting for financial instruments and financial institutions. accounting rules, in particular the comprehensive conceptual discussions surrounding their development. Overall, students will gain a deep and profound understanding of these advanced topics of financial accounting.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>ACC 520</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>Obligatory registrationFurther Information on registration</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lecture 2 6 Exercise Session 2 2</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Written exam (90 minutes)</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Holger Daske</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
+  </si>
+  <si>
+    <t>ACC 5|</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +148,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,213 +472,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ACC 620 Accounting for Financial Instruments and Financial Institutions</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>The course addresses in-depth the accounting for financial instruments and by financial institutions under setters and bank regulators. classification, initial and subsequent measurement, impairment, derecognition, as well as their accounting in the context of hedging transactions. We also discuss relevant notes disclosures in example banks’ financial statements and links to capital regulation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>The course aims at developing the skills to understand, apply, analyze and critically evaluate accounting standards in the complex field of accounting for financial instruments and financial institutions. accounting rules, in particular the comprehensive conceptual discussions surrounding their development. Overall, students will gain a deep and profound understanding of these advanced topics of financial accounting.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ACC 520</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ACC 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registrationFurther Information on registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lecture 2 6 Exercise Session 2 2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Written exam (90 minutes)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Holger Daske</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
